--- a/stock_predictor_ai/data/company_sentiment_ready/MAA_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/MAA_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7907"/>
+  <dimension ref="A1:B7961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63697,6 +63697,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7908">
+      <c r="A7908" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B7908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7909">
+      <c r="A7909" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B7909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7910">
+      <c r="A7910" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B7910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7911">
+      <c r="A7911" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B7911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7912">
+      <c r="A7912" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B7912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7913">
+      <c r="A7913" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B7913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7914">
+      <c r="A7914" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B7914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7915">
+      <c r="A7915" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B7915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7916">
+      <c r="A7916" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B7916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7917">
+      <c r="A7917" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B7917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7918">
+      <c r="A7918" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B7918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7919">
+      <c r="A7919" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B7919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7920">
+      <c r="A7920" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B7920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7921">
+      <c r="A7921" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B7921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7922">
+      <c r="A7922" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B7922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7923">
+      <c r="A7923" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B7923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7924">
+      <c r="A7924" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B7924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7925">
+      <c r="A7925" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B7925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7926">
+      <c r="A7926" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B7926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7927">
+      <c r="A7927" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B7927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7928">
+      <c r="A7928" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B7928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7929">
+      <c r="A7929" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B7929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7930">
+      <c r="A7930" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B7930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7931">
+      <c r="A7931" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B7931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7932">
+      <c r="A7932" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B7932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7933">
+      <c r="A7933" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B7933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7934">
+      <c r="A7934" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B7934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7935">
+      <c r="A7935" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B7935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7936">
+      <c r="A7936" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B7936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7937">
+      <c r="A7937" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B7937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7938">
+      <c r="A7938" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B7938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7939">
+      <c r="A7939" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B7939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7940">
+      <c r="A7940" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B7940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7941">
+      <c r="A7941" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B7941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7942">
+      <c r="A7942" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B7942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7943">
+      <c r="A7943" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B7943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7944">
+      <c r="A7944" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B7944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7945">
+      <c r="A7945" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B7945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7946">
+      <c r="A7946" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B7946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7947">
+      <c r="A7947" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B7947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7948">
+      <c r="A7948" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B7948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7949">
+      <c r="A7949" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B7949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7950">
+      <c r="A7950" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B7950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7951">
+      <c r="A7951" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B7951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7952">
+      <c r="A7952" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B7952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7953">
+      <c r="A7953" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B7953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7954">
+      <c r="A7954" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B7954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7955">
+      <c r="A7955" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B7955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7956">
+      <c r="A7956" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B7956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7957">
+      <c r="A7957" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B7957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7958">
+      <c r="A7958" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B7958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7959">
+      <c r="A7959" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B7959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7960">
+      <c r="A7960" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B7960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7961">
+      <c r="A7961" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B7961" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
